--- a/battleworld/Excel/Shop_商店表.xlsx
+++ b/battleworld/Excel/Shop_商店表.xlsx
@@ -60,6 +60,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -95,6 +102,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -102,6 +116,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -116,13 +137,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -138,20 +152,6 @@
     </font>
     <font>
       <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -175,24 +175,6 @@
     <fill>
       <patternFill patternType="gray125">
         <fgColor/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8EE085"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8EE085"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8EE085"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -234,6 +216,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF8EE085"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EE085"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EE085"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF8800"/>
         <bgColor/>
       </patternFill>
@@ -392,53 +392,53 @@
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="4" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="5" fontId="4" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="6" fontId="5" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="7" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="8" fontId="7" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="9" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="10" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="11" fontId="10" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="12" fontId="11" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="13" fontId="12" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="0" fontId="13" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="4" fontId="5" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="5" fontId="6" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="6" fontId="7" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="7" fontId="8" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="8" fontId="9" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="9" fontId="10" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="10" fontId="11" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="0" fontId="12" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="15" fillId="0" fontId="15" numFmtId="164" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="13" fillId="0" fontId="13" numFmtId="164" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="11" fontId="14" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="12" fontId="15" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="13" fontId="16" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="14" fontId="17" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
@@ -777,770 +777,845 @@
       <c r="A1" s="17" t="str">
         <v>int</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="13" t="str">
         <v>int</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="13" t="str">
         <v>string</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="13" t="str">
         <v>string</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="13" t="str">
         <v>string</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="13" t="str">
         <v>string</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="13" t="str">
         <v>int</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="13" t="str">
         <v>int[]</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" s="13" t="str">
         <v>string</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="13" t="str">
         <v>id</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="13" t="str">
         <v>Type</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="13" t="str">
         <v>Name</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="13" t="str">
         <v>Des</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="13" t="str">
         <v>Icon</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="13" t="str">
         <v>Img</v>
       </c>
-      <c r="G2" s="12" t="str">
+      <c r="G2" s="16" t="str">
         <v>Price</v>
       </c>
-      <c r="H2" s="13" t="str">
+      <c r="H2" s="15" t="str">
         <v>pendantId</v>
       </c>
-      <c r="I2" s="13" t="str">
+      <c r="I2" s="15" t="str">
         <v>pendantName</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="13" t="str">
         <v>ID</v>
       </c>
-      <c r="B3" s="1" t="str">
+      <c r="B3" s="13" t="str">
         <v>类型
 1 翅膀
 2 拖尾
 3 击杀特效
 4 段位特效</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="13" t="str">
         <v>名字（策划看）
 </v>
       </c>
-      <c r="D3" s="1" t="str">
+      <c r="D3" s="13" t="str">
         <v>挂件描述</v>
       </c>
-      <c r="E3" s="1" t="str">
+      <c r="E3" s="13" t="str">
         <v>服饰guid
 </v>
       </c>
-      <c r="F3" s="1" t="str">
+      <c r="F3" s="13" t="str">
         <v>服饰图标id
 （不填则直接读取资源库图标）</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G3" s="14" t="str">
         <v>金币数量
 </v>
       </c>
-      <c r="H3" s="1" t="str">
+      <c r="H3" s="13" t="str">
         <v>挂件ID
 </v>
       </c>
-      <c r="I3" s="1" t="str">
+      <c r="I3" s="13" t="str">
         <v>挂件名称</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="str">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13" t="str">
         <v>Language</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="str">
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13" t="str">
         <v>Language</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3">
+      <c r="A5" s="7">
         <v>1001</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="str">
+      <c r="C5" s="7" t="str">
         <v>凤舞九天</v>
       </c>
-      <c r="D5" s="3" t="str">
+      <c r="D5" s="7" t="str">
         <v>Pendant_Wing_1</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="7">
         <v>211667</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4">
+      <c r="F5" s="7"/>
+      <c r="G5" s="8">
         <v>1000</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="9">
         <v>7</v>
       </c>
-      <c r="I5" s="5"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6">
-      <c r="A6" s="3">
+      <c r="A6" s="7">
         <v>1002</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="7">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="str">
+      <c r="C6" s="7" t="str">
         <v>血蝠</v>
       </c>
-      <c r="D6" s="3" t="str">
+      <c r="D6" s="7" t="str">
         <v>Pendant_Wing_2</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="7">
         <v>136966</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4">
+      <c r="F6" s="7"/>
+      <c r="G6" s="8">
         <v>3000</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="9">
         <v>8</v>
       </c>
-      <c r="I6" s="5"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7">
-      <c r="A7" s="3">
+      <c r="A7" s="7">
         <v>1003</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="7">
         <v>1</v>
       </c>
-      <c r="C7" s="3" t="str">
+      <c r="C7" s="7" t="str">
         <v>丘比特</v>
       </c>
-      <c r="D7" s="3" t="str">
+      <c r="D7" s="7" t="str">
         <v>Pendant_Wing_3</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="7">
         <v>136962</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4">
+      <c r="F7" s="7"/>
+      <c r="G7" s="8">
         <v>7000</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="9">
         <v>9</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8">
-      <c r="A8" s="3">
+      <c r="A8" s="7">
         <v>1004</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="7">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="str">
+      <c r="C8" s="7" t="str">
         <v>暗夜</v>
       </c>
-      <c r="D8" s="3" t="str">
+      <c r="D8" s="7" t="str">
         <v>Pendant_Wing_4</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="7">
         <v>145904</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4">
+      <c r="F8" s="7"/>
+      <c r="G8" s="8">
         <v>10000</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="9">
         <v>10</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="7">
         <v>1005</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="7">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="str">
+      <c r="C9" s="7" t="str">
         <v>爱心天使</v>
       </c>
-      <c r="D9" s="3" t="str">
+      <c r="D9" s="7" t="str">
         <v>Pendant_Wing_5</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="7">
         <v>145910</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4">
+      <c r="F9" s="7"/>
+      <c r="G9" s="8">
         <v>12000</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="9">
         <v>11</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="9"/>
     </row>
     <row customHeight="true" ht="19" r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="7">
         <v>1006</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="7">
         <v>1</v>
       </c>
-      <c r="C10" s="3" t="str">
+      <c r="C10" s="7" t="str">
         <v>星云</v>
       </c>
-      <c r="D10" s="3" t="str">
+      <c r="D10" s="7" t="str">
         <v>Pendant_Wing_6</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="7">
         <v>42812</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4">
+      <c r="F10" s="7"/>
+      <c r="G10" s="8">
         <v>7000</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="9">
         <v>17</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="9"/>
     </row>
     <row customHeight="true" ht="19" r="11">
-      <c r="A11" s="3">
+      <c r="A11" s="7">
         <v>1007</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="7">
         <v>1</v>
       </c>
-      <c r="C11" s="3" t="str">
+      <c r="C11" s="7" t="str">
         <v>绿野仙踪</v>
       </c>
-      <c r="D11" s="3" t="str">
+      <c r="D11" s="7" t="str">
         <v>Pendant_Wing_7</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="7">
         <v>42822</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4">
+      <c r="F11" s="7"/>
+      <c r="G11" s="8">
         <v>5000</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="9">
         <v>24</v>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="9"/>
     </row>
     <row customHeight="true" ht="19" r="12">
-      <c r="A12" s="3">
+      <c r="A12" s="7">
         <v>1008</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="7">
         <v>1</v>
       </c>
-      <c r="C12" s="3" t="str">
+      <c r="C12" s="7" t="str">
         <v>玄鸟</v>
       </c>
-      <c r="D12" s="3" t="str">
+      <c r="D12" s="7" t="str">
         <v>Pendant_Wing_8</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="7">
         <v>145913</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4">
+      <c r="F12" s="7"/>
+      <c r="G12" s="8">
         <v>15000</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="9">
         <v>25</v>
       </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13">
-      <c r="A13" s="6">
+      <c r="A13" s="1">
         <v>2001</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="2">
         <v>2</v>
       </c>
-      <c r="C13" s="6" t="str">
+      <c r="C13" s="1" t="str">
         <v>彗星拖尾</v>
       </c>
-      <c r="D13" s="6" t="str">
+      <c r="D13" s="1" t="str">
         <v>Pendant_Trail_1</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="1">
         <v>153613</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7">
+      <c r="F13" s="1"/>
+      <c r="G13" s="4">
         <v>1000</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="3">
         <v>12</v>
       </c>
-      <c r="I13" s="9"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14">
-      <c r="A14" s="6">
+      <c r="A14" s="1">
         <v>2002</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="2">
         <v>2</v>
       </c>
-      <c r="C14" s="6" t="str">
+      <c r="C14" s="1" t="str">
         <v>启明星</v>
       </c>
-      <c r="D14" s="6" t="str">
+      <c r="D14" s="1" t="str">
         <v>Pendant_Trail_2</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="1">
         <v>88021</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7">
+      <c r="F14" s="1"/>
+      <c r="G14" s="4">
         <v>3000</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="3">
         <v>13</v>
       </c>
-      <c r="I14" s="9"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15">
-      <c r="A15" s="6">
+      <c r="A15" s="1">
         <v>2003</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="2">
         <v>2</v>
       </c>
-      <c r="C15" s="6" t="str">
+      <c r="C15" s="1" t="str">
         <v>冰雪</v>
       </c>
-      <c r="D15" s="6" t="str">
+      <c r="D15" s="1" t="str">
         <v>Pendant_Trail_3</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="1">
         <v>128514</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7">
+      <c r="F15" s="1"/>
+      <c r="G15" s="4">
         <v>7000</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="3">
         <v>14</v>
       </c>
-      <c r="I15" s="9"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="16">
-      <c r="A16" s="6">
+      <c r="A16" s="1">
         <v>2004</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="2">
         <v>2</v>
       </c>
-      <c r="C16" s="6" t="str">
+      <c r="C16" s="1" t="str">
         <v>糖果</v>
       </c>
-      <c r="D16" s="6" t="str">
+      <c r="D16" s="1" t="str">
         <v>Pendant_Trail_4</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="1">
         <v>145495</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7">
+      <c r="F16" s="1"/>
+      <c r="G16" s="4">
         <v>10000</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="3">
         <v>15</v>
       </c>
-      <c r="I16" s="9"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17">
-      <c r="A17" s="6">
+      <c r="A17" s="1">
         <v>2005</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="2">
         <v>2</v>
       </c>
-      <c r="C17" s="6" t="str">
+      <c r="C17" s="1" t="str">
         <v>枫叶</v>
       </c>
-      <c r="D17" s="6" t="str">
+      <c r="D17" s="1" t="str">
         <v>Pendant_Trail_5</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="1">
         <v>195115</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7">
+      <c r="F17" s="1"/>
+      <c r="G17" s="4">
         <v>12000</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="3">
         <v>16</v>
       </c>
-      <c r="I17" s="9"/>
+      <c r="I17" s="3"/>
     </row>
     <row customHeight="true" ht="19" r="18">
-      <c r="A18" s="6">
+      <c r="A18" s="1">
         <v>2006</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="2">
         <v>2</v>
       </c>
-      <c r="C18" s="6" t="str">
+      <c r="C18" s="1" t="str">
         <v>六芒守护</v>
       </c>
-      <c r="D18" s="6" t="str">
+      <c r="D18" s="1" t="str">
         <v>Pendant_Trail_6</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="1">
         <v>196217</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7">
+      <c r="F18" s="1"/>
+      <c r="G18" s="4">
         <v>7000</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="3">
         <v>18</v>
       </c>
-      <c r="I18" s="9"/>
+      <c r="I18" s="3"/>
     </row>
     <row customHeight="true" ht="19" r="19">
-      <c r="A19" s="6">
+      <c r="A19" s="1">
         <v>2007</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="2">
         <v>2</v>
       </c>
-      <c r="C19" s="6" t="str">
+      <c r="C19" s="1" t="str">
         <v>彩虹</v>
       </c>
-      <c r="D19" s="6" t="str">
+      <c r="D19" s="1" t="str">
         <v>Pendant_Trail_7</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="1">
         <v>27392</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7">
+      <c r="F19" s="1"/>
+      <c r="G19" s="4">
         <v>10000</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="3">
         <v>26</v>
       </c>
-      <c r="I19" s="9"/>
+      <c r="I19" s="3"/>
     </row>
     <row customHeight="true" ht="19" r="20">
-      <c r="A20" s="6">
+      <c r="A20" s="1">
         <v>2008</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="2">
         <v>2</v>
       </c>
-      <c r="C20" s="6" t="str">
+      <c r="C20" s="1" t="str">
         <v>足球</v>
       </c>
-      <c r="D20" s="6" t="str">
+      <c r="D20" s="1" t="str">
         <v>Pendant_Trail_8</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="1">
         <v>145493</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7">
+      <c r="F20" s="1"/>
+      <c r="G20" s="4">
         <v>15000</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="3">
         <v>27</v>
       </c>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="14">
+      <c r="I20" s="3"/>
+    </row>
+    <row customHeight="true" ht="19" r="21">
+      <c r="A21" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <v>星光</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <v>Pendant_Trail_9</v>
+      </c>
+      <c r="E21" s="1">
+        <v>145506</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="4">
+        <v>20000</v>
+      </c>
+      <c r="H21" s="3">
+        <v>47</v>
+      </c>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="10">
         <v>3001</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B22" s="10">
         <v>3</v>
       </c>
-      <c r="C21" s="14" t="str">
+      <c r="C22" s="10" t="str">
         <v>击杀特效·爆炸</v>
       </c>
-      <c r="D21" s="14" t="str">
+      <c r="D22" s="10" t="str">
         <v>Pendant_Kill_1</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E22" s="10">
         <v>14329</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15">
+      <c r="F22" s="10"/>
+      <c r="G22" s="11">
         <v>1000</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H22" s="12">
         <v>19</v>
       </c>
-      <c r="I21" s="16"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="14">
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="10">
         <v>3002</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B23" s="10">
         <v>3</v>
       </c>
-      <c r="C22" s="14" t="str">
+      <c r="C23" s="10" t="str">
         <v>击杀特效·小恶魔</v>
       </c>
-      <c r="D22" s="14" t="str">
+      <c r="D23" s="10" t="str">
         <v>Pendant_Kill_2</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E23" s="10">
         <v>61006</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15">
+      <c r="F23" s="10"/>
+      <c r="G23" s="11">
         <v>3000</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H23" s="12">
         <v>20</v>
       </c>
-      <c r="I22" s="16"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="14">
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="10">
         <v>3003</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B24" s="10">
         <v>3</v>
       </c>
-      <c r="C23" s="14" t="str">
+      <c r="C24" s="10" t="str">
         <v>击杀特效·天雷</v>
       </c>
-      <c r="D23" s="14" t="str">
+      <c r="D24" s="10" t="str">
         <v>Pendant_Kill_3</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E24" s="10">
         <v>130641</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15">
+      <c r="F24" s="10"/>
+      <c r="G24" s="11">
         <v>7000</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H24" s="12">
         <v>21</v>
       </c>
-      <c r="I23" s="16"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="14">
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="10">
         <v>3004</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B25" s="10">
         <v>3</v>
       </c>
-      <c r="C24" s="14" t="str">
+      <c r="C25" s="10" t="str">
         <v>击杀特效·地刺</v>
       </c>
-      <c r="D24" s="14" t="str">
+      <c r="D25" s="10" t="str">
         <v>Pendant_Kill_4</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E25" s="10">
         <v>137230</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15">
+      <c r="F25" s="10"/>
+      <c r="G25" s="11">
         <v>10000</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H25" s="12">
         <v>22</v>
       </c>
-      <c r="I24" s="16"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="14">
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="10">
         <v>3005</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B26" s="10">
         <v>3</v>
       </c>
-      <c r="C25" s="14" t="str">
+      <c r="C26" s="10" t="str">
         <v>击杀特效·幻梦</v>
       </c>
-      <c r="D25" s="14" t="str">
+      <c r="D26" s="10" t="str">
         <v>Pendant_Kill_5</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E26" s="10">
         <v>153045</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15">
+      <c r="F26" s="10"/>
+      <c r="G26" s="11">
         <v>12000</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H26" s="12">
         <v>23</v>
       </c>
-      <c r="I25" s="16"/>
-    </row>
-    <row customHeight="true" ht="19" r="26">
-      <c r="A26" s="10">
-        <v>4001</v>
-      </c>
-      <c r="B26" s="10">
-        <v>4</v>
-      </c>
-      <c r="C26" s="10" t="str">
-        <v>段位奖励·金丹</v>
-      </c>
-      <c r="D26" s="10" t="str">
-        <v>Pendant_Rank_reward_1</v>
-      </c>
-      <c r="E26" s="10">
-        <v>266517</v>
-      </c>
-      <c r="F26" s="10">
-        <v>267207</v>
-      </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11" t="str">
-        <v>28|35|40</v>
-      </c>
-      <c r="I26" s="11" t="str">
-        <v>Rank_name_3</v>
-      </c>
+      <c r="I26" s="12"/>
     </row>
     <row customHeight="true" ht="19" r="27">
       <c r="A27" s="10">
-        <v>4002</v>
+        <v>3006</v>
       </c>
       <c r="B27" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="10" t="str">
-        <v>段位奖励·元婴</v>
+        <v>击杀特效·炎爆</v>
       </c>
       <c r="D27" s="10" t="str">
-        <v>Pendant_Rank_reward_2</v>
+        <v>Pendant_Kill_6</v>
       </c>
       <c r="E27" s="10">
-        <v>266519</v>
-      </c>
-      <c r="F27" s="10">
-        <v>267208</v>
-      </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11" t="str">
-        <v>29|36|41</v>
-      </c>
-      <c r="I27" s="11" t="str">
-        <v>Rank_name_4</v>
-      </c>
+        <v>271321</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="11">
+        <v>10000</v>
+      </c>
+      <c r="H27" s="12">
+        <v>45</v>
+      </c>
+      <c r="I27" s="12"/>
     </row>
     <row customHeight="true" ht="19" r="28">
       <c r="A28" s="10">
+        <v>3007</v>
+      </c>
+      <c r="B28" s="10">
+        <v>3</v>
+      </c>
+      <c r="C28" s="10" t="str">
+        <v>击杀特效·水龙卷</v>
+      </c>
+      <c r="D28" s="10" t="str">
+        <v>Pendant_Kill_7</v>
+      </c>
+      <c r="E28" s="10">
+        <v>270683</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="11">
+        <v>10000</v>
+      </c>
+      <c r="H28" s="12">
+        <v>46</v>
+      </c>
+      <c r="I28" s="12"/>
+    </row>
+    <row customHeight="true" ht="19" r="29">
+      <c r="A29" s="5">
+        <v>4001</v>
+      </c>
+      <c r="B29" s="5">
+        <v>4</v>
+      </c>
+      <c r="C29" s="5" t="str">
+        <v>段位奖励·金丹</v>
+      </c>
+      <c r="D29" s="5" t="str">
+        <v>Pendant_Rank_reward_1</v>
+      </c>
+      <c r="E29" s="5">
+        <v>266517</v>
+      </c>
+      <c r="F29" s="5">
+        <v>267207</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6" t="str">
+        <v>28|35|40</v>
+      </c>
+      <c r="I29" s="6" t="str">
+        <v>Rank_name_3</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="19" r="30">
+      <c r="A30" s="5">
+        <v>4002</v>
+      </c>
+      <c r="B30" s="5">
+        <v>4</v>
+      </c>
+      <c r="C30" s="5" t="str">
+        <v>段位奖励·元婴</v>
+      </c>
+      <c r="D30" s="5" t="str">
+        <v>Pendant_Rank_reward_2</v>
+      </c>
+      <c r="E30" s="5">
+        <v>266519</v>
+      </c>
+      <c r="F30" s="5">
+        <v>267208</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6" t="str">
+        <v>29|36|41</v>
+      </c>
+      <c r="I30" s="6" t="str">
+        <v>Rank_name_4</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="19" r="31">
+      <c r="A31" s="5">
         <v>4003</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B31" s="5">
         <v>4</v>
       </c>
-      <c r="C28" s="10" t="str">
+      <c r="C31" s="5" t="str">
         <v>段位奖励·化神</v>
       </c>
-      <c r="D28" s="10" t="str">
+      <c r="D31" s="5" t="str">
         <v>Pendant_Rank_reward_3</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E31" s="5">
         <v>266518</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F31" s="5">
         <v>267209</v>
       </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11" t="str">
+      <c r="G31" s="6"/>
+      <c r="H31" s="6" t="str">
         <v>30|37|42</v>
       </c>
-      <c r="I28" s="11" t="str">
+      <c r="I31" s="6" t="str">
         <v>Rank_name_5</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="29">
-      <c r="A29" s="10">
+    <row customHeight="true" ht="19" r="32">
+      <c r="A32" s="5">
         <v>4004</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B32" s="5">
         <v>4</v>
       </c>
-      <c r="C29" s="10" t="str">
+      <c r="C32" s="5" t="str">
         <v>段位奖励·炼虚</v>
       </c>
-      <c r="D29" s="10" t="str">
+      <c r="D32" s="5" t="str">
         <v>Pendant_Rank_reward_4</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E32" s="5">
         <v>266521</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F32" s="5">
         <v>267206</v>
       </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11" t="str">
+      <c r="G32" s="6"/>
+      <c r="H32" s="6" t="str">
         <v>31|38|43</v>
       </c>
-      <c r="I29" s="11" t="str">
+      <c r="I32" s="6" t="str">
         <v>Rank_name_6</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="30">
-      <c r="A30" s="10">
+    <row customHeight="true" ht="19" r="33">
+      <c r="A33" s="5">
         <v>4005</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B33" s="5">
         <v>4</v>
       </c>
-      <c r="C30" s="10" t="str">
+      <c r="C33" s="5" t="str">
         <v>段位奖励·合体</v>
       </c>
-      <c r="D30" s="10" t="str">
+      <c r="D33" s="5" t="str">
         <v>Pendant_Rank_reward_5</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E33" s="5">
         <v>266520</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F33" s="5">
         <v>267205</v>
       </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11" t="str">
+      <c r="G33" s="6"/>
+      <c r="H33" s="6" t="str">
         <v>32|39|44</v>
       </c>
-      <c r="I30" s="11" t="str">
+      <c r="I33" s="6" t="str">
         <v>Rank_name_7</v>
       </c>
     </row>

--- a/battleworld/Excel/Shop_商店表.xlsx
+++ b/battleworld/Excel/Shop_商店表.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaWorldSaved\Saved\MetaWorld\Project\Edit\Dragonverse\battleworld\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02B3242-C636-45F2-A039-02B81B0D53AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcMode="auto"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -17,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -25,235 +34,492 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t xml:space="preserve">  </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="90">
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Des</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>Img</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>pendantId</t>
+  </si>
+  <si>
+    <t>pendantName</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>类型
+1 翅膀
+2 拖尾
+3 击杀特效
+4 段位特效</t>
+  </si>
+  <si>
+    <t>名字（策划看）</t>
+  </si>
+  <si>
+    <t>挂件描述</t>
+  </si>
+  <si>
+    <t>服饰guid</t>
+  </si>
+  <si>
+    <t>服饰图标id
+（不填则直接读取资源库图标）</t>
+  </si>
+  <si>
+    <t>金币数量</t>
+  </si>
+  <si>
+    <t>挂件ID</t>
+  </si>
+  <si>
+    <t>挂件名称</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>凤舞九天</t>
+  </si>
+  <si>
+    <t>Pendant_Wing_1</t>
+  </si>
+  <si>
+    <t>血蝠</t>
+  </si>
+  <si>
+    <t>Pendant_Wing_2</t>
+  </si>
+  <si>
+    <t>丘比特</t>
+  </si>
+  <si>
+    <t>Pendant_Wing_3</t>
+  </si>
+  <si>
+    <t>暗夜</t>
+  </si>
+  <si>
+    <t>Pendant_Wing_4</t>
+  </si>
+  <si>
+    <t>爱心天使</t>
+  </si>
+  <si>
+    <t>Pendant_Wing_5</t>
+  </si>
+  <si>
+    <t>星云</t>
+  </si>
+  <si>
+    <t>Pendant_Wing_6</t>
+  </si>
+  <si>
+    <t>绿野仙踪</t>
+  </si>
+  <si>
+    <t>Pendant_Wing_7</t>
+  </si>
+  <si>
+    <t>玄鸟</t>
+  </si>
+  <si>
+    <t>Pendant_Wing_8</t>
+  </si>
+  <si>
+    <t>彗星拖尾</t>
+  </si>
+  <si>
+    <t>Pendant_Trail_1</t>
+  </si>
+  <si>
+    <t>启明星</t>
+  </si>
+  <si>
+    <t>Pendant_Trail_2</t>
+  </si>
+  <si>
+    <t>冰雪</t>
+  </si>
+  <si>
+    <t>Pendant_Trail_3</t>
+  </si>
+  <si>
+    <t>糖果</t>
+  </si>
+  <si>
+    <t>Pendant_Trail_4</t>
+  </si>
+  <si>
+    <t>枫叶</t>
+  </si>
+  <si>
+    <t>Pendant_Trail_5</t>
+  </si>
+  <si>
+    <t>六芒守护</t>
+  </si>
+  <si>
+    <t>Pendant_Trail_6</t>
+  </si>
+  <si>
+    <t>彩虹</t>
+  </si>
+  <si>
+    <t>Pendant_Trail_7</t>
+  </si>
+  <si>
+    <t>足球</t>
+  </si>
+  <si>
+    <t>Pendant_Trail_8</t>
+  </si>
+  <si>
+    <t>星光</t>
+  </si>
+  <si>
+    <t>Pendant_Trail_9</t>
+  </si>
+  <si>
+    <t>击杀特效·爆炸</t>
+  </si>
+  <si>
+    <t>Pendant_Kill_1</t>
+  </si>
+  <si>
+    <t>击杀特效·小恶魔</t>
+  </si>
+  <si>
+    <t>Pendant_Kill_2</t>
+  </si>
+  <si>
+    <t>击杀特效·天雷</t>
+  </si>
+  <si>
+    <t>Pendant_Kill_3</t>
+  </si>
+  <si>
+    <t>击杀特效·地刺</t>
+  </si>
+  <si>
+    <t>Pendant_Kill_4</t>
+  </si>
+  <si>
+    <t>击杀特效·幻梦</t>
+  </si>
+  <si>
+    <t>Pendant_Kill_5</t>
+  </si>
+  <si>
+    <t>击杀特效·炎爆</t>
+  </si>
+  <si>
+    <t>Pendant_Kill_6</t>
+  </si>
+  <si>
+    <t>击杀特效·水龙卷</t>
+  </si>
+  <si>
+    <t>Pendant_Kill_7</t>
+  </si>
+  <si>
+    <t>段位奖励·金丹</t>
+  </si>
+  <si>
+    <t>Pendant_Rank_reward_1</t>
+  </si>
+  <si>
+    <t>28|35|40</t>
+  </si>
+  <si>
+    <t>Rank_name_3</t>
+  </si>
+  <si>
+    <t>段位奖励·元婴</t>
+  </si>
+  <si>
+    <t>Pendant_Rank_reward_2</t>
+  </si>
+  <si>
+    <t>29|36|41</t>
+  </si>
+  <si>
+    <t>Rank_name_4</t>
+  </si>
+  <si>
+    <t>段位奖励·化神</t>
+  </si>
+  <si>
+    <t>Pendant_Rank_reward_3</t>
+  </si>
+  <si>
+    <t>30|37|42</t>
+  </si>
+  <si>
+    <t>Rank_name_5</t>
+  </si>
+  <si>
+    <t>段位奖励·炼虚</t>
+  </si>
+  <si>
+    <t>Pendant_Rank_reward_4</t>
+  </si>
+  <si>
+    <t>31|38|43</t>
+  </si>
+  <si>
+    <t>Rank_name_6</t>
+  </si>
+  <si>
+    <t>段位奖励·合体</t>
+  </si>
+  <si>
+    <t>Pendant_Rank_reward_5</t>
+  </si>
+  <si>
+    <t>32|39|44</t>
+  </si>
+  <si>
+    <t>Rank_name_7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="15">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF14C0FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF14C0FF"/>
-        <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF14C0FF"/>
-        <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF14C0FF"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF14C0FF"/>
-        <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF54A45"/>
-        <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF54A45"/>
-        <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF8EE085"/>
-        <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF8EE085"/>
-        <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF8EE085"/>
-        <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF8800"/>
-        <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF8800"/>
-        <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF8800"/>
-        <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF258"/>
-        <bgColor/>
       </patternFill>
     </fill>
   </fills>
@@ -386,69 +652,69 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="4" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="5" fontId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="6" fontId="5" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="7" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="8" fontId="7" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="9" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="10" fontId="9" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="11" fontId="10" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="12" fontId="11" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="13" fontId="12" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="0" fontId="13" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="0" fontId="14" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="15" fillId="0" fontId="15" numFmtId="164" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="0" fontId="16" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="14" fontId="17" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -461,7 +727,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -756,746 +1022,737 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="14"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="17" t="str">
-        <v>int</v>
-      </c>
-      <c r="B1" s="13" t="str">
-        <v>int</v>
-      </c>
-      <c r="C1" s="13" t="str">
-        <v>string</v>
-      </c>
-      <c r="D1" s="13" t="str">
-        <v>string</v>
-      </c>
-      <c r="E1" s="13" t="str">
-        <v>string</v>
-      </c>
-      <c r="F1" s="13" t="str">
-        <v>string</v>
-      </c>
-      <c r="G1" s="13" t="str">
-        <v>int</v>
-      </c>
-      <c r="H1" s="13" t="str">
-        <v>int[]</v>
-      </c>
-      <c r="I1" s="13" t="str">
-        <v>string</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="13" t="str">
-        <v>id</v>
-      </c>
-      <c r="B2" s="13" t="str">
-        <v>Type</v>
-      </c>
-      <c r="C2" s="13" t="str">
-        <v>Name</v>
-      </c>
-      <c r="D2" s="13" t="str">
-        <v>Des</v>
-      </c>
-      <c r="E2" s="13" t="str">
-        <v>Icon</v>
-      </c>
-      <c r="F2" s="13" t="str">
-        <v>Img</v>
-      </c>
-      <c r="G2" s="16" t="str">
-        <v>Price</v>
-      </c>
-      <c r="H2" s="15" t="str">
-        <v>pendantId</v>
-      </c>
-      <c r="I2" s="15" t="str">
-        <v>pendantName</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="13" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B3" s="13" t="str">
-        <v>类型
-1 翅膀
-2 拖尾
-3 击杀特效
-4 段位特效</v>
-      </c>
-      <c r="C3" s="13" t="str">
-        <v>名字（策划看）
-</v>
-      </c>
-      <c r="D3" s="13" t="str">
-        <v>挂件描述</v>
-      </c>
-      <c r="E3" s="13" t="str">
-        <v>服饰guid
-</v>
-      </c>
-      <c r="F3" s="13" t="str">
-        <v>服饰图标id
-（不填则直接读取资源库图标）</v>
-      </c>
-      <c r="G3" s="14" t="str">
-        <v>金币数量
-</v>
-      </c>
-      <c r="H3" s="13" t="str">
-        <v>挂件ID
-</v>
-      </c>
-      <c r="I3" s="13" t="str">
-        <v>挂件名称</v>
-      </c>
-    </row>
-    <row r="4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
-      <c r="D4" s="13" t="str">
-        <v>Language</v>
+      <c r="D4" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
-      <c r="I4" s="13" t="str">
-        <v>Language</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="I4" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>1001</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="str">
-        <v>凤舞九天</v>
-      </c>
-      <c r="D5" s="7" t="str">
-        <v>Pendant_Wing_1</v>
+      <c r="C5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E5" s="7">
         <v>211667</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="8">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="H5" s="9">
         <v>7</v>
       </c>
       <c r="I5" s="9"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>1002</v>
       </c>
       <c r="B6" s="7">
         <v>1</v>
       </c>
-      <c r="C6" s="7" t="str">
-        <v>血蝠</v>
-      </c>
-      <c r="D6" s="7" t="str">
-        <v>Pendant_Wing_2</v>
+      <c r="C6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="E6" s="7">
         <v>136966</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="8">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="H6" s="9">
         <v>8</v>
       </c>
       <c r="I6" s="9"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>1003</v>
       </c>
       <c r="B7" s="7">
         <v>1</v>
       </c>
-      <c r="C7" s="7" t="str">
-        <v>丘比特</v>
-      </c>
-      <c r="D7" s="7" t="str">
-        <v>Pendant_Wing_3</v>
+      <c r="C7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="E7" s="7">
         <v>136962</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="8">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="H7" s="9">
         <v>9</v>
       </c>
       <c r="I7" s="9"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>1004</v>
       </c>
       <c r="B8" s="7">
         <v>1</v>
       </c>
-      <c r="C8" s="7" t="str">
-        <v>暗夜</v>
-      </c>
-      <c r="D8" s="7" t="str">
-        <v>Pendant_Wing_4</v>
+      <c r="C8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="E8" s="7">
         <v>145904</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="H8" s="9">
         <v>10</v>
       </c>
       <c r="I8" s="9"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>1005</v>
       </c>
       <c r="B9" s="7">
         <v>1</v>
       </c>
-      <c r="C9" s="7" t="str">
-        <v>爱心天使</v>
-      </c>
-      <c r="D9" s="7" t="str">
-        <v>Pendant_Wing_5</v>
+      <c r="C9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="E9" s="7">
         <v>145910</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="8">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="H9" s="9">
         <v>11</v>
       </c>
       <c r="I9" s="9"/>
     </row>
-    <row customHeight="true" ht="19" r="10">
+    <row r="10" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>1006</v>
       </c>
       <c r="B10" s="7">
         <v>1</v>
       </c>
-      <c r="C10" s="7" t="str">
-        <v>星云</v>
-      </c>
-      <c r="D10" s="7" t="str">
-        <v>Pendant_Wing_6</v>
+      <c r="C10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="E10" s="7">
         <v>42812</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="8">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="H10" s="9">
         <v>17</v>
       </c>
       <c r="I10" s="9"/>
     </row>
-    <row customHeight="true" ht="19" r="11">
+    <row r="11" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>1007</v>
       </c>
       <c r="B11" s="7">
         <v>1</v>
       </c>
-      <c r="C11" s="7" t="str">
-        <v>绿野仙踪</v>
-      </c>
-      <c r="D11" s="7" t="str">
-        <v>Pendant_Wing_7</v>
+      <c r="C11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="E11" s="7">
         <v>42822</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="8">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="H11" s="9">
         <v>24</v>
       </c>
       <c r="I11" s="9"/>
     </row>
-    <row customHeight="true" ht="19" r="12">
+    <row r="12" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>1008</v>
       </c>
       <c r="B12" s="7">
         <v>1</v>
       </c>
-      <c r="C12" s="7" t="str">
-        <v>玄鸟</v>
-      </c>
-      <c r="D12" s="7" t="str">
-        <v>Pendant_Wing_8</v>
+      <c r="C12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="E12" s="7">
         <v>145913</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="8">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="H12" s="9">
         <v>25</v>
       </c>
       <c r="I12" s="9"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2001</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
       </c>
-      <c r="C13" s="1" t="str">
-        <v>彗星拖尾</v>
-      </c>
-      <c r="D13" s="1" t="str">
-        <v>Pendant_Trail_1</v>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E13" s="1">
         <v>153613</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="4">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="H13" s="3">
         <v>12</v>
       </c>
       <c r="I13" s="3"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2002</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
       </c>
-      <c r="C14" s="1" t="str">
-        <v>启明星</v>
-      </c>
-      <c r="D14" s="1" t="str">
-        <v>Pendant_Trail_2</v>
+      <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E14" s="1">
         <v>88021</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="4">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="H14" s="3">
         <v>13</v>
       </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2003</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
       </c>
-      <c r="C15" s="1" t="str">
-        <v>冰雪</v>
-      </c>
-      <c r="D15" s="1" t="str">
-        <v>Pendant_Trail_3</v>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="E15" s="1">
         <v>128514</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="4">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="H15" s="3">
         <v>14</v>
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2004</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
       </c>
-      <c r="C16" s="1" t="str">
-        <v>糖果</v>
-      </c>
-      <c r="D16" s="1" t="str">
-        <v>Pendant_Trail_4</v>
+      <c r="C16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="E16" s="1">
         <v>145495</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="4">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="H16" s="3">
         <v>15</v>
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2005</v>
       </c>
       <c r="B17" s="2">
         <v>2</v>
       </c>
-      <c r="C17" s="1" t="str">
-        <v>枫叶</v>
-      </c>
-      <c r="D17" s="1" t="str">
-        <v>Pendant_Trail_5</v>
+      <c r="C17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="E17" s="1">
         <v>195115</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="4">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="H17" s="3">
         <v>16</v>
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row customHeight="true" ht="19" r="18">
+    <row r="18" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2006</v>
       </c>
       <c r="B18" s="2">
         <v>2</v>
       </c>
-      <c r="C18" s="1" t="str">
-        <v>六芒守护</v>
-      </c>
-      <c r="D18" s="1" t="str">
-        <v>Pendant_Trail_6</v>
+      <c r="C18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E18" s="1">
         <v>196217</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="4">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="H18" s="3">
         <v>18</v>
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row customHeight="true" ht="19" r="19">
+    <row r="19" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2007</v>
       </c>
       <c r="B19" s="2">
         <v>2</v>
       </c>
-      <c r="C19" s="1" t="str">
-        <v>彩虹</v>
-      </c>
-      <c r="D19" s="1" t="str">
-        <v>Pendant_Trail_7</v>
+      <c r="C19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="E19" s="1">
         <v>27392</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="4">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="H19" s="3">
         <v>26</v>
       </c>
       <c r="I19" s="3"/>
     </row>
-    <row customHeight="true" ht="19" r="20">
+    <row r="20" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>2008</v>
       </c>
       <c r="B20" s="2">
         <v>2</v>
       </c>
-      <c r="C20" s="1" t="str">
-        <v>足球</v>
-      </c>
-      <c r="D20" s="1" t="str">
-        <v>Pendant_Trail_8</v>
+      <c r="C20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E20" s="1">
         <v>145493</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="4">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="H20" s="3">
         <v>27</v>
       </c>
       <c r="I20" s="3"/>
     </row>
-    <row customHeight="true" ht="19" r="21">
+    <row r="21" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2009</v>
       </c>
       <c r="B21" s="2">
         <v>2</v>
       </c>
-      <c r="C21" s="1" t="str">
-        <v>星光</v>
-      </c>
-      <c r="D21" s="1" t="str">
-        <v>Pendant_Trail_9</v>
+      <c r="C21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="E21" s="1">
         <v>145506</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="4">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="H21" s="3">
         <v>47</v>
       </c>
       <c r="I21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>3001</v>
       </c>
       <c r="B22" s="10">
         <v>3</v>
       </c>
-      <c r="C22" s="10" t="str">
-        <v>击杀特效·爆炸</v>
-      </c>
-      <c r="D22" s="10" t="str">
-        <v>Pendant_Kill_1</v>
+      <c r="C22" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="E22" s="10">
         <v>14329</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H22" s="12">
         <v>19</v>
       </c>
       <c r="I22" s="12"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>3002</v>
       </c>
       <c r="B23" s="10">
         <v>3</v>
       </c>
-      <c r="C23" s="10" t="str">
-        <v>击杀特效·小恶魔</v>
-      </c>
-      <c r="D23" s="10" t="str">
-        <v>Pendant_Kill_2</v>
+      <c r="C23" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="E23" s="10">
         <v>61006</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="11">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="H23" s="12">
         <v>20</v>
       </c>
       <c r="I23" s="12"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>3003</v>
       </c>
       <c r="B24" s="10">
         <v>3</v>
       </c>
-      <c r="C24" s="10" t="str">
-        <v>击杀特效·天雷</v>
-      </c>
-      <c r="D24" s="10" t="str">
-        <v>Pendant_Kill_3</v>
+      <c r="C24" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="E24" s="10">
         <v>130641</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="11">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="H24" s="12">
         <v>21</v>
       </c>
       <c r="I24" s="12"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>3004</v>
       </c>
       <c r="B25" s="10">
         <v>3</v>
       </c>
-      <c r="C25" s="10" t="str">
-        <v>击杀特效·地刺</v>
-      </c>
-      <c r="D25" s="10" t="str">
-        <v>Pendant_Kill_4</v>
+      <c r="C25" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="E25" s="10">
         <v>137230</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="11">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="H25" s="12">
         <v>22</v>
       </c>
       <c r="I25" s="12"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>3005</v>
       </c>
       <c r="B26" s="10">
         <v>3</v>
       </c>
-      <c r="C26" s="10" t="str">
-        <v>击杀特效·幻梦</v>
-      </c>
-      <c r="D26" s="10" t="str">
-        <v>Pendant_Kill_5</v>
+      <c r="C26" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="E26" s="10">
         <v>153045</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="11">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="H26" s="12">
         <v>23</v>
       </c>
       <c r="I26" s="12"/>
     </row>
-    <row customHeight="true" ht="19" r="27">
+    <row r="27" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>3006</v>
       </c>
       <c r="B27" s="10">
         <v>3</v>
       </c>
-      <c r="C27" s="10" t="str">
-        <v>击杀特效·炎爆</v>
-      </c>
-      <c r="D27" s="10" t="str">
-        <v>Pendant_Kill_6</v>
+      <c r="C27" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="E27" s="10">
         <v>271321</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="11">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="H27" s="12">
         <v>45</v>
       </c>
       <c r="I27" s="12"/>
     </row>
-    <row customHeight="true" ht="19" r="28">
+    <row r="28" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>3007</v>
       </c>
       <c r="B28" s="10">
         <v>3</v>
       </c>
-      <c r="C28" s="10" t="str">
-        <v>击杀特效·水龙卷</v>
-      </c>
-      <c r="D28" s="10" t="str">
-        <v>Pendant_Kill_7</v>
+      <c r="C28" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="E28" s="10">
         <v>270683</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="11">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="H28" s="12">
         <v>46</v>
       </c>
       <c r="I28" s="12"/>
     </row>
-    <row customHeight="true" ht="19" r="29">
+    <row r="29" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>4001</v>
       </c>
       <c r="B29" s="5">
         <v>4</v>
       </c>
-      <c r="C29" s="5" t="str">
-        <v>段位奖励·金丹</v>
-      </c>
-      <c r="D29" s="5" t="str">
-        <v>Pendant_Rank_reward_1</v>
+      <c r="C29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="E29" s="5">
         <v>266517</v>
@@ -1504,25 +1761,25 @@
         <v>267207</v>
       </c>
       <c r="G29" s="6"/>
-      <c r="H29" s="6" t="str">
-        <v>28|35|40</v>
-      </c>
-      <c r="I29" s="6" t="str">
-        <v>Rank_name_3</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="19" r="30">
+      <c r="H29" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>4002</v>
       </c>
       <c r="B30" s="5">
         <v>4</v>
       </c>
-      <c r="C30" s="5" t="str">
-        <v>段位奖励·元婴</v>
-      </c>
-      <c r="D30" s="5" t="str">
-        <v>Pendant_Rank_reward_2</v>
+      <c r="C30" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="E30" s="5">
         <v>266519</v>
@@ -1531,25 +1788,25 @@
         <v>267208</v>
       </c>
       <c r="G30" s="6"/>
-      <c r="H30" s="6" t="str">
-        <v>29|36|41</v>
-      </c>
-      <c r="I30" s="6" t="str">
-        <v>Rank_name_4</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="19" r="31">
+      <c r="H30" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>4003</v>
       </c>
       <c r="B31" s="5">
         <v>4</v>
       </c>
-      <c r="C31" s="5" t="str">
-        <v>段位奖励·化神</v>
-      </c>
-      <c r="D31" s="5" t="str">
-        <v>Pendant_Rank_reward_3</v>
+      <c r="C31" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="E31" s="5">
         <v>266518</v>
@@ -1558,25 +1815,25 @@
         <v>267209</v>
       </c>
       <c r="G31" s="6"/>
-      <c r="H31" s="6" t="str">
-        <v>30|37|42</v>
-      </c>
-      <c r="I31" s="6" t="str">
-        <v>Rank_name_5</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="19" r="32">
+      <c r="H31" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>4004</v>
       </c>
       <c r="B32" s="5">
         <v>4</v>
       </c>
-      <c r="C32" s="5" t="str">
-        <v>段位奖励·炼虚</v>
-      </c>
-      <c r="D32" s="5" t="str">
-        <v>Pendant_Rank_reward_4</v>
+      <c r="C32" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="E32" s="5">
         <v>266521</v>
@@ -1585,25 +1842,25 @@
         <v>267206</v>
       </c>
       <c r="G32" s="6"/>
-      <c r="H32" s="6" t="str">
-        <v>31|38|43</v>
-      </c>
-      <c r="I32" s="6" t="str">
-        <v>Rank_name_6</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="19" r="33">
+      <c r="H32" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>4005</v>
       </c>
       <c r="B33" s="5">
         <v>4</v>
       </c>
-      <c r="C33" s="5" t="str">
-        <v>段位奖励·合体</v>
-      </c>
-      <c r="D33" s="5" t="str">
-        <v>Pendant_Rank_reward_5</v>
+      <c r="C33" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="E33" s="5">
         <v>266520</v>
@@ -1612,15 +1869,16 @@
         <v>267205</v>
       </c>
       <c r="G33" s="6"/>
-      <c r="H33" s="6" t="str">
-        <v>32|39|44</v>
-      </c>
-      <c r="I33" s="6" t="str">
-        <v>Rank_name_7</v>
+      <c r="H33" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <picture r:id="rId1"/>
 </worksheet>
 </file>
--- a/battleworld/Excel/Shop_商店表.xlsx
+++ b/battleworld/Excel/Shop_商店表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaWorldSaved\Saved\MetaWorld\Project\Edit\Dragonverse\battleworld\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02B3242-C636-45F2-A039-02B81B0D53AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9364B330-2280-4F34-928A-57B176934558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1029,12 +1029,12 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
